--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra-my.sharepoint.com/personal/jsalo_icra_cat/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439ACE21-9B9D-4473-BD21-05900B1CBDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{109C39E0-2423-4DE0-A07A-6884C51E7420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{414641F1-04D5-417E-BF9B-54BD2037DF2A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Low</t>
   </si>
@@ -48,50 +48,278 @@
     <t>Very high</t>
   </si>
   <si>
-    <t>Global warming potential</t>
-  </si>
-  <si>
-    <t>Dilution factor</t>
-  </si>
-  <si>
-    <t>Treated water factor</t>
-  </si>
-  <si>
-    <t>Consumption available ratio</t>
-  </si>
-  <si>
-    <t>Specific water consumption</t>
-  </si>
-  <si>
-    <t>Recycled water factor</t>
-  </si>
-  <si>
-    <t>Eutrophication potential</t>
-  </si>
-  <si>
-    <t>Increase in the concentration of the pollutant in the receiving body</t>
-  </si>
-  <si>
-    <t>Pollutant treatment efficiency</t>
-  </si>
-  <si>
-    <t>Toxic units on the effluent</t>
-  </si>
-  <si>
-    <t>Average concentration of the effluent pollutants (with respect to EQS)</t>
-  </si>
-  <si>
-    <t>Increase in toxic units in the receiving water body after discharge</t>
-  </si>
-  <si>
-    <t>Increase of the average concentration of the effluent pollutants in the receiving water body after discharge (with respect to EQS)</t>
+    <r>
+      <t>Global warming potential</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recycled water factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dilution factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Treated water factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Consumption available ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Specific water consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eutrophication potential</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Toxic units on the effluent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase in the concentration of the pollutant in the receiving body</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase in toxic units in the receiving water body after discharge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Average concentration of the effluent pollutants (with respect to EQS)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase of the average concentration of the effluent pollutants in the receiving water body after discharge (with respect to EQS)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher impact means higher values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher impact means lower values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Percentage of treatment efficiency (compared to WWTP influent)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +337,23 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -172,6 +417,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -488,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E30A0-4211-4C5A-8B5B-19CA9E80E21E}">
-  <dimension ref="A3:F17"/>
+  <dimension ref="A3:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A20:A21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,45 +762,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -559,16 +808,16 @@
       <c r="E8" s="5"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -577,25 +826,25 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -604,27 +853,27 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -633,6 +882,19 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836B2D9-0F8D-41D3-A2A2-EF2F6D885F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FC915-457F-4E50-8E42-559F316ECC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
@@ -219,7 +219,28 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t>Percentage of treatment efficiency (compared to WWTP influent)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carbon impact</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -229,15 +250,45 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher impact means higher values</t>
+  </si>
+  <si>
+    <r>
+      <t>Toxic units in the effluent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
     </r>
   </si>
   <si>
@@ -260,58 +311,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> --&gt; Higher impact means lower values</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Percentage of treatment efficiency (compared to WWTP influent)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carbon impact</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Toxic units in the effluent</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
+      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
     </r>
   </si>
 </sst>
@@ -740,7 +740,7 @@
   <dimension ref="A3:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -828,7 +828,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -873,7 +873,7 @@
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -885,13 +885,16 @@
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>

--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FC915-457F-4E50-8E42-559F316ECC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D7142E3-BE8F-41EA-A6A6-498AD6E48977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Low</t>
   </si>
@@ -49,7 +49,7 @@
   </si>
   <si>
     <r>
-      <t>Recycled water factor</t>
+      <t>Dilution factor</t>
     </r>
     <r>
       <rPr>
@@ -66,7 +66,7 @@
   </si>
   <si>
     <r>
-      <t>Dilution factor</t>
+      <t>Consumption available ratio</t>
     </r>
     <r>
       <rPr>
@@ -78,12 +78,126 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase in the concentration of the pollutant in the receiving body</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase in toxic units in the receiving water body after discharge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carbon impact</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Toxic units in the effluent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Treated water factor</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Concentration of the effluent pollutants (with respect to EQS)</t>
     </r>
     <r>
       <rPr>
@@ -95,12 +209,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Consumption available ratio</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase of the concentration of the effluent pollutants in the receiving water body after discharge (with respect to EQS)</t>
     </r>
     <r>
       <rPr>
@@ -117,28 +231,12 @@
   </si>
   <si>
     <r>
-      <t>Specific water consumption</t>
+      <t>Eutrophication potential</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Eutrophication potential</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <u/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -147,171 +245,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase in the concentration of the pollutant in the receiving body</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase in toxic units in the receiving water body after discharge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Average concentration of the effluent pollutants (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase of the average concentration of the effluent pollutants in the receiving water body after discharge (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Percentage of treatment efficiency (compared to WWTP influent)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carbon impact</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Toxic units in the effluent</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
     </r>
   </si>
 </sst>
@@ -319,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +286,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,6 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,11 +690,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E30A0-4211-4C5A-8B5B-19CA9E80E21E}">
-  <dimension ref="A3:F35"/>
+  <dimension ref="A3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -764,7 +715,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -788,29 +739,29 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -818,8 +769,8 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -827,79 +778,44 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
+      <c r="A17" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D7142E3-BE8F-41EA-A6A6-498AD6E48977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCA6A37-6262-4A28-AD14-E7F30868FE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
@@ -117,23 +117,6 @@
   </si>
   <si>
     <r>
-      <t>Carbon impact</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Toxic units in the effluent</t>
     </r>
     <r>
@@ -237,6 +220,23 @@
       <rPr>
         <b/>
         <u/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GHG emissions from Wastewater</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -692,7 +692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E30A0-4211-4C5A-8B5B-19CA9E80E21E}">
   <dimension ref="A3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -715,7 +717,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -743,7 +745,7 @@
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -752,7 +754,7 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -770,7 +772,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -788,7 +790,7 @@
     </row>
     <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -800,16 +802,16 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>

--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/WIATv1follow-up/Documentos compartidos/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCCA6A37-6262-4A28-AD14-E7F30868FE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{25683F59-CEA7-4536-8D9B-A635493C6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F464AE-779A-4DE8-BD28-3B122D9AF413}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Low</t>
   </si>
@@ -45,7 +46,249 @@
     <t>High</t>
   </si>
   <si>
-    <t>Very high</t>
+    <t>&lt;Low: Low impact</t>
+  </si>
+  <si>
+    <t>&gt;=Low and &lt;Medium: Medium impact</t>
+  </si>
+  <si>
+    <t>&gt;=Medium and &lt;High: High impact</t>
+  </si>
+  <si>
+    <t>&gt;=High: Vehy high impact</t>
+  </si>
+  <si>
+    <t>&lt;Low: Very high impact</t>
+  </si>
+  <si>
+    <t>&gt;=Low and &lt;Medium: High impact</t>
+  </si>
+  <si>
+    <t>&gt;=Medium and &lt;High: Medium impact</t>
+  </si>
+  <si>
+    <t>&gt;=High: Low impact</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: This sheet shows the default values. To overwrite risk thresholds on WIAT, change the values and upload Excel. </t>
+  </si>
+  <si>
+    <r>
+      <t>GHG emissions from Wastewater</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kgCO2eq / day)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase in toxic units in the receiving water body after discharge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (TU / day)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase of the concentration of the pollutants in the receiving water body after discharge (with respect to EQS)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Eutrophication potential</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (gPO4eq / m3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Toxic units in the effluent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (TU / day)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Concentration of the pollutants in the effluent (with respect to EQS)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -63,6 +306,17 @@
       </rPr>
       <t>2</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (-)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -80,171 +334,16 @@
       </rPr>
       <t>1</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase in the concentration of the pollutant in the receiving body</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase in toxic units in the receiving water body after discharge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Toxic units in the effluent</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Concentration of the effluent pollutants (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase of the concentration of the effluent pollutants in the receiving water body after discharge (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Eutrophication potential</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GHG emissions from Wastewater</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
     </r>
   </si>
 </sst>
@@ -252,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,33 +377,6 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,22 +432,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,18 +758,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E30A0-4211-4C5A-8B5B-19CA9E80E21E}">
-  <dimension ref="A3:F31"/>
+  <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="66.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,114 +783,346 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A72428E0EAD6D5498BDBB12511F7512D" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6a066439d80a0c312f315f24bfaa9d84">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a1f963b-ced7-40fe-9dd3-78e0736f4e74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b7c05bbd12c8435934e35e79d2bbf76" ns2:_="">
+    <xsd:import namespace="6a1f963b-ced7-40fe-9dd3-78e0736f4e74"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6a1f963b-ced7-40fe-9dd3-78e0736f4e74" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921C3F49-CB52-4BDA-B7F7-A4074A498D1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6a1f963b-ced7-40fe-9dd3-78e0736f4e74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{375C5E98-C544-44B4-A273-A2211A9C26C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6a1f963b-ced7-40fe-9dd3-78e0736f4e74"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F377BBF-09F3-4FEA-A191-D2B3A0BBBAC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/WIATv1follow-up/Documentos compartidos/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{25683F59-CEA7-4536-8D9B-A635493C6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F464AE-779A-4DE8-BD28-3B122D9AF413}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25683F59-CEA7-4536-8D9B-A635493C6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Low</t>
   </si>
@@ -46,30 +45,29 @@
     <t>High</t>
   </si>
   <si>
-    <t>&lt;Low: Low impact</t>
-  </si>
-  <si>
-    <t>&gt;=Low and &lt;Medium: Medium impact</t>
-  </si>
-  <si>
-    <t>&gt;=Medium and &lt;High: High impact</t>
-  </si>
-  <si>
-    <t>&gt;=High: Vehy high impact</t>
-  </si>
-  <si>
-    <t>&lt;Low: Very high impact</t>
-  </si>
-  <si>
-    <t>&gt;=Low and &lt;Medium: High impact</t>
-  </si>
-  <si>
-    <t>&gt;=Medium and &lt;High: Medium impact</t>
-  </si>
-  <si>
-    <t>&gt;=High: Low impact</t>
-  </si>
-  <si>
+    <t>Very high</t>
+  </si>
+  <si>
+    <r>
+      <t>Dilution factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Consumption available ratio</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -82,9 +80,55 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
+  </si>
+  <si>
+    <r>
+      <t>Increase in toxic units in the receiving water body after discharge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Toxic units in the effluent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -97,7 +141,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -109,7 +152,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -120,9 +162,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NOTE: This sheet shows the default values. To overwrite risk thresholds on WIAT, change the values and upload Excel. </t>
-  </si>
-  <si>
     <r>
       <t>GHG emissions from Wastewater</t>
     </r>
@@ -138,21 +177,10 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (kgCO2eq / day)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase in toxic units in the receiving water body after discharge</t>
+  </si>
+  <si>
+    <r>
+      <t>Increase of the concentration of the pollutants in the receiving water body after discharge (with respect to EQS)</t>
     </r>
     <r>
       <rPr>
@@ -166,21 +194,18 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (TU / day)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase of the concentration of the pollutants in the receiving water body after discharge (with respect to EQS)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eutrophication potential</t>
     </r>
     <r>
       <rPr>
@@ -194,21 +219,10 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Eutrophication potential</t>
+  </si>
+  <si>
+    <r>
+      <t>Concentration of the pollutants in the effluent (with respect to EQS)</t>
     </r>
     <r>
       <rPr>
@@ -222,21 +236,10 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (gPO4eq / m3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Toxic units in the effluent</t>
+  </si>
+  <si>
+    <r>
+      <t>Carbon impact</t>
     </r>
     <r>
       <rPr>
@@ -249,101 +252,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (TU / day)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Concentration of the pollutants in the effluent (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dilution factor</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Consumption available ratio</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (%)</t>
     </r>
   </si>
 </sst>
@@ -351,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +285,14 @@
     </font>
     <font>
       <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,9 +355,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -758,22 +676,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E30A0-4211-4C5A-8B5B-19CA9E80E21E}">
-  <dimension ref="A3:E19"/>
+  <dimension ref="A3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="66.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="45.7265625" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,346 +697,108 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6">
-        <v>100</v>
-      </c>
-      <c r="D6" s="6">
-        <v>200</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A72428E0EAD6D5498BDBB12511F7512D" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6a066439d80a0c312f315f24bfaa9d84">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a1f963b-ced7-40fe-9dd3-78e0736f4e74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b7c05bbd12c8435934e35e79d2bbf76" ns2:_="">
-    <xsd:import namespace="6a1f963b-ced7-40fe-9dd3-78e0736f4e74"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6a1f963b-ced7-40fe-9dd3-78e0736f4e74" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{921C3F49-CB52-4BDA-B7F7-A4074A498D1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6a1f963b-ced7-40fe-9dd3-78e0736f4e74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{375C5E98-C544-44B4-A273-A2211A9C26C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6a1f963b-ced7-40fe-9dd3-78e0736f4e74"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F377BBF-09F3-4FEA-A191-D2B3A0BBBAC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25683F59-CEA7-4536-8D9B-A635493C6896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C6433-024A-4EEA-8538-18A0CA4DC5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Low</t>
   </si>
@@ -100,7 +100,53 @@
   </si>
   <si>
     <r>
-      <t>Toxic units in the effluent</t>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase of the concentration of the pollutants in the receiving water body after discharge (with respect to EQS)</t>
     </r>
     <r>
       <rPr>
@@ -118,6 +164,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eutrophication potential</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -127,43 +185,10 @@
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher values means higher impacts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; Higher values means lower impacts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GHG emissions from Wastewater</t>
+  </si>
+  <si>
+    <r>
+      <t>Increase in temperature in the receiving water body due to industry discharge</t>
     </r>
     <r>
       <rPr>
@@ -180,66 +205,7 @@
   </si>
   <si>
     <r>
-      <t>Increase of the concentration of the pollutants in the receiving water body after discharge (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eutrophication potential</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Concentration of the pollutants in the effluent (with respect to EQS)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carbon impact</t>
+      <t>GHG emissions from wastewater treatment</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -676,15 +641,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E30A0-4211-4C5A-8B5B-19CA9E80E21E}">
-  <dimension ref="A3:F22"/>
+  <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.1796875" customWidth="1"/>
+    <col min="1" max="1" width="67.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -702,45 +667,45 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -748,8 +713,8 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -757,47 +722,25 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/risk_threshold.xlsx
+++ b/public/risk_threshold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\WIAT_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C6433-024A-4EEA-8538-18A0CA4DC5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9EFECE-7FFE-4A33-9EC4-71ABB4F72E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{C8DB30FF-034D-4F5E-A8CE-87B2AA9556C4}"/>
   </bookViews>
@@ -188,7 +188,7 @@
   </si>
   <si>
     <r>
-      <t>Increase in temperature in the receiving water body due to industry discharge</t>
+      <t>GHG emissions from wastewater treatment</t>
     </r>
     <r>
       <rPr>
@@ -205,7 +205,7 @@
   </si>
   <si>
     <r>
-      <t>GHG emissions from wastewater treatment</t>
+      <t>Increase in temperature in the receiving water body due to site discharge</t>
     </r>
     <r>
       <rPr>
@@ -696,7 +696,7 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
